--- a/ExcelData/P2EFormFillReport1.xlsx
+++ b/ExcelData/P2EFormFillReport1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -356,7 +356,22 @@
     <t>28-Feb-2025 03_39_50 am</t>
   </si>
   <si>
-    <t>73</t>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Aashish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soni </t>
+  </si>
+  <si>
+    <t>6207863173</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 06_55_06 am</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>Abdul</t>
@@ -365,16 +380,25 @@
     <t xml:space="preserve">Waseem Shah </t>
   </si>
   <si>
-    <t>tategi8338@bnsteps.com</t>
-  </si>
-  <si>
-    <t>28-Feb-2025 03_56_44 am</t>
+    <t>8148021397</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_11_07 am</t>
   </si>
   <si>
     <t>74</t>
   </si>
   <si>
-    <t>28-Feb-2025 04_08_02 am</t>
+    <t>Vimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratap Singh </t>
+  </si>
+  <si>
+    <t>7248286804</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_16_18 am</t>
   </si>
   <si>
     <t>75</t>
@@ -386,10 +410,133 @@
     <t xml:space="preserve">KUMAR </t>
   </si>
   <si>
-    <t>wavola3978@apklamp.com</t>
-  </si>
-  <si>
-    <t>28-Feb-2025 04_16_39 am</t>
+    <t>9193664728</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_21_38 am</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">katiyar </t>
+  </si>
+  <si>
+    <t>9123937627</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_27_44 am</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Virendra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar </t>
+  </si>
+  <si>
+    <t>8667394745</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_36_07 am</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Chet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ram </t>
+  </si>
+  <si>
+    <t>9359808505</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_42_24 am</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Rajnish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar </t>
+  </si>
+  <si>
+    <t>7483629576</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_49_37 am</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>9344166646</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_54_08 am</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsh </t>
+  </si>
+  <si>
+    <t>8449410409</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 07_59_02 am</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>OMPRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANESHRAO SARAF </t>
+  </si>
+  <si>
+    <t>9579225048</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Hazaribagh</t>
+  </si>
+  <si>
+    <t>Kaushal (PwD), Hazaribagh</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 08_03_58 am</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Ganta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sathyanarayana </t>
+  </si>
+  <si>
+    <t>7086417185</t>
+  </si>
+  <si>
+    <t>28-Feb-2025 08_07_56 am</t>
   </si>
 </sst>
 </file>
@@ -754,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
         <v>11</v>
       </c>
@@ -846,7 +993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>21</v>
       </c>
@@ -878,7 +1025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>26</v>
       </c>
@@ -910,7 +1057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>31</v>
       </c>
@@ -942,7 +1089,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>35</v>
       </c>
@@ -977,7 +1124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>42</v>
       </c>
@@ -1009,7 +1156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>47</v>
       </c>
@@ -1041,7 +1188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>52</v>
       </c>
@@ -1073,7 +1220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>58</v>
       </c>
@@ -1105,7 +1252,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>63</v>
       </c>
@@ -1137,7 +1284,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>68</v>
       </c>
@@ -1169,7 +1316,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
         <v>73</v>
       </c>
@@ -1201,7 +1348,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
         <v>78</v>
       </c>
@@ -1233,7 +1380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s" s="0">
         <v>81</v>
       </c>
@@ -1265,7 +1412,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
         <v>86</v>
       </c>
@@ -1297,7 +1444,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>90</v>
       </c>
@@ -1329,7 +1476,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
         <v>95</v>
       </c>
@@ -1361,7 +1508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
         <v>100</v>
       </c>
@@ -1393,7 +1540,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
         <v>105</v>
       </c>
@@ -1465,13 +1612,13 @@
         <v>53</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>16</v>
@@ -1486,27 +1633,24 @@
         <v>19</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>53</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>16</v>
@@ -1521,7 +1665,295 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>121</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
